--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -575,7 +575,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         <v>44855.38858796296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>45446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>45555</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45713.67790509259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45576</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44277</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44572</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45320.63596064815</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45097</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45720</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45960.49180555555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45610</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45141</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45555</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45897.61241898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>45845.42806712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45610</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45587.57552083334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45320.63706018519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>46043</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>45324</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>45531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44504</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44552</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>45799.49038194444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45001</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44573.54357638889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45744.34585648148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>45958.36018518519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45992.65416666667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>45376.4047337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>46013.77002314815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45379.46285879629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44438.74399305556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45539</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>45107</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>45014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44999.95988425926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45838</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45936.62290509259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45944.35162037037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45769.63357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>44425</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45958.36266203703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45183</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45883.38020833334</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45973.56733796297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45644</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>45232</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45559</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45567</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>44756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44973</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44893.78075231481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>45783.59173611111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45790.50728009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44519.41648148148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44550</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44552</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44791</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44749</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44448</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44378</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44305</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44582</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44621.66173611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44341</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44558.76385416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44552.47971064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44774.62174768518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44504.55927083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44552.461875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44683</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44833.68795138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44448</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44552</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44888.58435185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44691.4336574074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44552.45675925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44571</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44602.38149305555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44694.63438657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44750</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44418</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44418.65399305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44243</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44365.57377314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44588.64377314815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44866</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44839.64516203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44664.43082175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44571.66552083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44305</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44302.67659722222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44305</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44388.37549768519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44403</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44403</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44517</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44370.46853009259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44502</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44839.49953703704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44363</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44348</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44750</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44722.37339120371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44871</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44519.33401620371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44369</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44715</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44719.79537037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44517.38163194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44609.5984837963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44517</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44615.45451388889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44861</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44525</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44728.56488425926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44535.6571412037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44582</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44348</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44615.47800925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44749</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44522.40886574074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44552</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44747</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44880.42752314815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44517</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44839.506875</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44732</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44879.87171296297</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44722</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44713</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>44365</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>44365.60569444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44365.5983449074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>44515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44713</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44277</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>44879.87533564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44505</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44403</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>44546</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>44546</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44750</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44829.97008101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44525</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>44525</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44841.63766203704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44622.37693287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44482.46760416667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44512</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45740.34650462963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45268.49008101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45107</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44487</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45415</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45093.360625</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45411.38171296296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44599</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>45002.33291666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44995</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44957.73234953704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44831</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>45133.32409722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45641</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44531.39696759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>45769</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44957</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44424</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>45604.49768518518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>45617.68224537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44937</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45645</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>45405.56498842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>45306</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>45544</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>45748.56810185185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44768</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44242</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>45743.54256944444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>45743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44749.50649305555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44419</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>44750</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>45183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45336.62782407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45674</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45742.58212962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45643.80978009259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>45093</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>45618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>45799</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45799.53775462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45229</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>45258</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45884.46390046296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45506</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45506</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45506</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45506</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45506</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45609</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45244.61589120371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45370</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45834.63819444444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44294.50096064815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45293.85872685185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45232</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45888.66204861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44383</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44732</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>45810</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44951.42501157407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>45698.37601851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45698</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45411</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44874.50152777778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45698</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>45666.44038194444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45643.38416666666</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45817.58716435185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45527.59115740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45817.57471064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45467.54435185185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44368</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45896.45037037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45896.44944444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45896.58609953704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45818.425625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44896.43832175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44323</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45623</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44294.50096064815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45818.58893518519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45898</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45818.58454861111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45901.360625</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45432</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45819.62158564815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45819.62344907408</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45819.62274305556</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45648</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45611.64887731482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45901.39347222223</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45702</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45820.56243055555</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45820</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44823.84862268518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45821</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45443</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45282</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45905.40067129629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45453.58296296297</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45415</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>45876.4584837963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45825.53645833334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45750</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45643</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45744.3434837963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45909</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45896.44506944445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45909</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>45909.53472222222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>45909.53856481481</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45642.46434027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>45610</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>45910</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>45825.85761574074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>45751</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>45915.56707175926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44522</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44552.92112268518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44951.60454861111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45916.72920138889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>45916.65517361111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>45919.52444444445</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44995</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45909</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>45833</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>45832.3246875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>45832.34430555555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45833</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>45086</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>45922.39001157408</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>45833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>45833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>45629.71967592592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45832.35767361111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45923.82582175926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45002</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45832.57571759259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45833.36765046296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45923.75078703704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45461.48888888889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45834</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45835</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
         <v>45929.42114583333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>45926.40113425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44340</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>45833.78650462963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45835</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>45833.80056712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45835</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45834.49288194445</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45834.50910879629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45835</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>45931.4047337963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>45835</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45839</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>45103.71759259259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>45700.50625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44939.43024305555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>45531</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>45932.67947916667</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>45216</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45936.63184027778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44768.46725694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44799.55194444444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45769</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45095</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45937.48649305556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45939.5043287037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44719.79707175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45705</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45939.61459490741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45642.46261574074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45943.55318287037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45142.33481481481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45943.54883101852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44994.44001157407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>45943.44125</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>45845.43560185185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>45944.31508101852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>45356</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>45593.53636574074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44671</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>45748</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>45951.63636574074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45366</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>45169.45173611111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44620</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45951.41769675926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>45860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45860.69495370371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45040</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45860.69211805556</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>45860.42148148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45951.53462962963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>45859.52435185185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>45860.68780092592</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45866.39469907407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>45865.46111111111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>45951.77697916667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45951.79302083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45866.35333333333</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45076.4399537037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>45865.48740740741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45866.37065972222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         <v>45951.76818287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45951.78359953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45951.80116898148</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45337</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>45589</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45866.36200231482</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>44368</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45758</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45834.63303240741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>44369</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45456</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>45680</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>45834.64555555556</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45099.71063657408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>44972</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45648.89519675926</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>45761</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44405</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>45698</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45875.47743055555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44708.48194444444</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45372.45016203704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45876.39435185185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45315.58909722222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45960.63394675926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44414</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45546</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45960.64863425926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>45880.41138888889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45880.41325231481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>45960.63174768518</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45317</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44579.86452546297</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45965.36462962963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45965.74199074074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45736.40579861111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45964.58055555556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45748.45454861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45097.37690972222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>44489.46454861111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45967.36383101852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45883.44854166666</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44995</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45764.65796296296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44502</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45568.57724537037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45826</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>44917</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45405.56021990741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>45973.56833333334</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45260</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45260</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45972.49131944445</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>44442.57797453704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45425.47435185185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>44592.45429398148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45975</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>45975.63063657407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45975</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>45975.59288194445</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45695.6371875</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45975</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44552.46501157407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45314.60950231482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44965</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45575</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45978</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>45131</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>44971</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44235</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45980.45003472222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>45980.45099537037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45980.44883101852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>45985.51594907408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>45985.5228125</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>45627.66478009259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>45985.44309027777</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>45406</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45972</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>45985.51518518518</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>45985.52288194445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44518.48670138889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>45471</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>45722.73423611111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44798.62576388889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45302</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>46030.53986111111</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45989.45746527778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44880.64016203704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45989.4640162037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45947.86487268518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45554</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45320.61099537037</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>46030.47952546296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>46030.4771412037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45992.63711805556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>46034.59930555556</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45072</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45072</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45992.92226851852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45993.39221064815</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45619.85208333333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45993.59998842593</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45096.59189814814</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45092</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45698</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>45029</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>45183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>45541</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>45631</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>45994.60146990741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>45994.60913194445</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>45994.58454861111</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44277.63396990741</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>45627.63271990741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>45617.39325231482</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>45994.6064699074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>45994.58931712963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>45996.41972222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>45281.63850694444</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>45281.64099537037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44742.60846064815</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45527.56790509259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>45593.50541666667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44284</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45278</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45574.59813657407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45127</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45727</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>45643</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45643</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33740,7 +33740,7 @@
         <v>44575</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>45471</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>46001.68684027778</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33911,7 +33911,7 @@
         <v>45533.49555555556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33968,7 +33968,7 @@
         <v>45232</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>46044.76459490741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>45630</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34139,7 +34139,7 @@
         <v>44861</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>45195.45958333334</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>45315.59041666667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34310,7 +34310,7 @@
         <v>44552.46501157407</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34367,7 +34367,7 @@
         <v>46048.46082175926</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>44421</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45740.64129629629</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>46048.43016203704</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>46048.43489583334</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>46048.41061342593</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>46049.76225694444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45616.64703703704</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>46007.61512731481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45698</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>46048.38107638889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45190.58479166667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>44917</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45183</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45183</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>44502</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>44750.57474537037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35336,7 +35336,7 @@
         <v>46050.65055555556</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>44907.45679398148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>46009.63619212963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>46009.63134259259</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45406</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>46009.62373842593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>46050.53740740741</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>46052.42412037037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>44818</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45070</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>46010.66670138889</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45154.55184027777</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>45229</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>45229</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>46010</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>44699.37318287037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>45691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45034</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>45769</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>46050</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36481,7 +36481,7 @@
         <v>45702</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>45152</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>45758</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45092.38087962963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36709,7 +36709,7 @@
         <v>46059.55550925926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36766,7 +36766,7 @@
         <v>46017.75243055556</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>46058.68678240741</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45478</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>46058.68023148148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37056,7 +37056,7 @@
         <v>46017.71640046296</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45702</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>46058.68371527778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>46058.68884259259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45737.41416666667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45315.58989583333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45470</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45591</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>44259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45630</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45411.38738425926</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45044</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37745,7 +37745,7 @@
         <v>45574.46119212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37802,7 +37802,7 @@
         <v>44910</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37864,7 +37864,7 @@
         <v>44893.48284722222</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37921,7 +37921,7 @@
         <v>45098</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37978,7 +37978,7 @@
         <v>45027</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         <v>45539</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38092,7 +38092,7 @@
         <v>45075</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38149,7 +38149,7 @@
         <v>45075.65040509259</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38206,7 +38206,7 @@
         <v>44323</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44530</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44691.44309027777</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38377,7 +38377,7 @@
         <v>45541</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>45541.50673611111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>45761</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38553,7 +38553,7 @@
         <v>45719.37072916667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38610,7 +38610,7 @@
         <v>45541</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>45426.55240740741</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
         <v>45162</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45192</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38838,7 +38838,7 @@
         <v>44433</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38895,7 +38895,7 @@
         <v>45666.68469907407</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38952,7 +38952,7 @@
         <v>45107</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39009,7 +39009,7 @@
         <v>45625</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39066,7 +39066,7 @@
         <v>44964</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>45467.46278935186</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44256</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44888</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44540.53421296296</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39351,7 +39351,7 @@
         <v>45007</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39408,7 +39408,7 @@
         <v>45007</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39465,7 +39465,7 @@
         <v>44575</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39522,7 +39522,7 @@
         <v>45755</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39579,7 +39579,7 @@
         <v>44433</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>45619</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39693,7 +39693,7 @@
         <v>45244.63140046296</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39750,7 +39750,7 @@
         <v>45540</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39807,7 +39807,7 @@
         <v>45034</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39864,7 +39864,7 @@
         <v>45133</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39921,7 +39921,7 @@
         <v>44624</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44616.56579861111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>45576</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44719.56697916667</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44935.82290509259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>45609.58806712963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>45350</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>45485</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40377,7 +40377,7 @@
         <v>45707.41799768519</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40434,7 +40434,7 @@
         <v>45097.76631944445</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>45007</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40548,7 +40548,7 @@
         <v>44788.40986111111</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40605,7 +40605,7 @@
         <v>44855</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40667,7 +40667,7 @@
         <v>45744</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44992.57782407408</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44992</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44880.59363425926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>45611</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40952,7 +40952,7 @@
         <v>44749.45561342593</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>45758</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>45618</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>45281</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>44624</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41247,7 +41247,7 @@
         <v>45069</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41304,7 +41304,7 @@
         <v>45506</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
         <v>45233</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41418,7 +41418,7 @@
         <v>44917</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41475,7 +41475,7 @@
         <v>44957.72496527778</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41532,7 +41532,7 @@
         <v>45167.62133101852</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         <v>45179</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41646,7 +41646,7 @@
         <v>44893.47173611111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41703,7 +41703,7 @@
         <v>45643</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41760,7 +41760,7 @@
         <v>45737.40944444444</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41817,7 +41817,7 @@
         <v>44750</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41874,7 +41874,7 @@
         <v>44904.48502314815</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41931,7 +41931,7 @@
         <v>45769</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41988,7 +41988,7 @@
         <v>45179</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42045,7 +42045,7 @@
         <v>45769</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42102,7 +42102,7 @@
         <v>45769</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45644</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45647</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42278,7 +42278,7 @@
         <v>45596</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42335,7 +42335,7 @@
         <v>45253</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42392,7 +42392,7 @@
         <v>45405.55740740741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44719.79344907407</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42506,7 +42506,7 @@
         <v>45058</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45728.5137962963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45211</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42796,7 +42796,7 @@
         <v>44917</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42853,7 +42853,7 @@
         <v>45625</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45333.67833333334</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42967,7 +42967,7 @@
         <v>44818.36606481481</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43024,7 +43024,7 @@
         <v>44973.40076388889</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>44694</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45184</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43200,7 +43200,7 @@
         <v>45763</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43262,7 +43262,7 @@
         <v>45587</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>44531.4047337963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43381,7 +43381,7 @@
         <v>45463.56337962963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44596.42082175926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45720.36165509259</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45591</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43609,7 +43609,7 @@
         <v>44831</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         <v>44964.62628472222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>45028</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45708</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43837,7 +43837,7 @@
         <v>44285</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>45762</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43951,7 +43951,7 @@
         <v>44893.78893518518</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>44893.79412037037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45591</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45735.39246527778</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45453</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44241,7 +44241,7 @@
         <v>45777</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44298,7 +44298,7 @@
         <v>45783.61837962963</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44355,7 +44355,7 @@
         <v>45783.61372685185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
         <v>45541</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         <v>45281.7602662037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44526,7 +44526,7 @@
         <v>44970</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44583,7 +44583,7 @@
         <v>45569</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44640,7 +44640,7 @@
         <v>45505.5490625</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44697,7 +44697,7 @@
         <v>45789.42752314815</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44754,7 +44754,7 @@
         <v>45786</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44811,7 +44811,7 @@
         <v>45786</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44868,7 +44868,7 @@
         <v>45789.43327546296</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44925,7 +44925,7 @@
         <v>45786</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44982,7 +44982,7 @@
         <v>45734</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45039,7 +45039,7 @@
         <v>45793.55995370371</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45096,7 +45096,7 @@
         <v>45785</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45153,7 +45153,7 @@
         <v>45769.56261574074</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>45793.56989583333</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>45796</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45329,7 +45329,7 @@
         <v>45726</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45386,7 +45386,7 @@
         <v>45085</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>

--- a/Översikt SALA.xlsx
+++ b/Översikt SALA.xlsx
@@ -575,7 +575,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         <v>44855.38858796296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>45446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>45555</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45713.67790509259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>45576</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44277</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44572</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45320.63596064815</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45097</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45720</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45960.49180555555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45610</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45141</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44348</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45555</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45897.61241898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>45845.42806712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45610</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45587.57552083334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45320.63706018519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>46043</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>45324</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>45531</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44504</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44552</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>45799.49038194444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45001</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44573.54357638889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45744.34585648148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>45958.36018518519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45992.65416666667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>45376.4047337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>46013.77002314815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45379.46285879629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44438.74399305556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44277</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45539</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>45107</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>45014</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44999.95988425926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45838</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45936.62290509259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45944.35162037037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45769.63357638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>44425</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45958.36266203703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45183</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45883.38020833334</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45973.56733796297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45644</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>45232</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45559</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45567</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>44756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44973</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44893.78075231481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>45783.59173611111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45790.50728009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44519.41648148148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44550</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44552</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44791</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44749</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44448</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44378</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44305</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44582</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44621.66173611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44341</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44558.76385416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44552.47971064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44774.62174768518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44504.55927083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44552.461875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44683</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44833.68795138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44448</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44552</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44888.58435185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44691.4336574074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44552.45675925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44571</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44602.38149305555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44694.63438657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44750</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44431</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44418</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44418.65399305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44243</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44365.57377314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44588.64377314815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44866</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44528</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44839.64516203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44664.43082175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44571.66552083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44305</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44302.67659722222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44305</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44388.37549768519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44403</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44403</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44517</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44370.46853009259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44502</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44839.49953703704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44363</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44348</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44750</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44722.37339120371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44871</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44519.33401620371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44369</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44715</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44719.79537037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44517.38163194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44609.5984837963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44517</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44615.45451388889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44861</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44525</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44728.56488425926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44535.6571412037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44582</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44348</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44615.47800925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44749</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44522.40886574074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44552</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44747</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44880.42752314815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44517</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44839.506875</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44732</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44879.87171296297</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44722</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44713</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>44365</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>44365.60569444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44365.5983449074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>44515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44713</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>44277</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>44879.87533564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44505</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44551</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44403</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>44546</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>44546</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44750</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44829.97008101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44525</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>44525</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>44841.63766203704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44622.37693287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44482.46760416667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44512</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45229</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45740.34650462963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45268.49008101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45107</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44487</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45415</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45093.360625</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45411.38171296296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44599</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>45002.33291666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44995</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44957.73234953704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44831</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>45133.32409722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45641</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44531.39696759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>45769</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44957</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44424</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>45604.49768518518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>45617.68224537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44937</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45645</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>45405.56498842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>45306</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>45544</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>45748.56810185185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44768</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>45539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44242</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>45743.54256944444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>45743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44749.50649305555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44419</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>44750</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>45183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45336.62782407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45674</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45742.58212962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45643.80978009259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>45093</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>45618</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>45799</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45799.53775462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45229</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>45258</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45884.46390046296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45506</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45506</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45506</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45506</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45506</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45609</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45244.61589120371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45370</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45834.63819444444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44294.50096064815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45293.85872685185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45232</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45888</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45888.66204861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44383</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44732</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>45810</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44951.42501157407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>45698.37601851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45698</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45411</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44874.50152777778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45698</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>45666.44038194444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45643.38416666666</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45817.58716435185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45527.59115740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45817.57471064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45467.54435185185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44368</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45896.45037037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45896.44944444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45896.58609953704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45818.425625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>44896.43832175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>44323</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45623</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44294.50096064815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45818.58893518519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45898</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45818.58454861111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45901.360625</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45432</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45819.62158564815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45819.62344907408</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45819.62274305556</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45648</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45611.64887731482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45901.39347222223</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45702</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45820.56243055555</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45820</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44823.84862268518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45821</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45443</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45282</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45905.40067129629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45453.58296296297</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45415</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>45876.4584837963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45825.53645833334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45750</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45643</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45744.3434837963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45909</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45896.44506944445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45909</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>45909.53472222222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>45909.53856481481</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45642.46434027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>45610</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>45910</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>45825.85761574074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>45751</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>45915.56707175926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44522</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44552.92112268518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44951.60454861111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45916.72920138889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>45916.65517361111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>45919.52444444445</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44995</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45909</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>45833</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>45832.3246875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>45832.34430555555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45833</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>45086</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>45922.39001157408</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>45833</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>45833</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>45629.71967592592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45832.35767361111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45923.82582175926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45002</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45832.57571759259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45833.36765046296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>45923.75078703704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>45461.48888888889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>45834</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>45835</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
         <v>45929.42114583333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>45926.40113425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44340</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>45833.78650462963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45835</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>45833.80056712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45835</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45834.49288194445</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45834.50910879629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45835</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>45931.4047337963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>45835</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45839</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>45103.71759259259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>45700.50625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44939.43024305555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>45531</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>45932.67947916667</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>45216</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45936.63184027778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44768.46725694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44799.55194444444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45769</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45095</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45937.48649305556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45939.5043287037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44719.79707175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45118</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45705</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45939.61459490741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45642.46261574074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45943.55318287037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45142.33481481481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45943.54883101852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44994.44001157407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>45943.44125</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>45845.43560185185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>45944.31508101852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>45356</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>45593.53636574074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44671</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>45748</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>45951.63636574074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45366</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>45169.45173611111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44620</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45951.41769675926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>45860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45860.69495370371</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45040</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45860.69211805556</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>45860.42148148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45951.53462962963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>45859.52435185185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>45860.68780092592</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45866.39469907407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>45865.46111111111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>45951.77697916667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45951.79302083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45866.35333333333</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45076.4399537037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>45865.48740740741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45866.37065972222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         <v>45951.76818287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45951.78359953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45951.80116898148</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45337</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>45589</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45866.36200231482</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>44368</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45758</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45834.63303240741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>44369</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45456</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>45680</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>45834.64555555556</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45099.71063657408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>44972</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45648.89519675926</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>45761</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44405</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>45698</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45875.47743055555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44708.48194444444</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45874</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45372.45016203704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45876.39435185185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45315.58909722222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45960.63394675926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44414</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45546</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45960.64863425926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>45880.41138888889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45880.41325231481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>45960.63174768518</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45317</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44579.86452546297</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45965.36462962963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45965.74199074074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>45736.40579861111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45964.58055555556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45748.45454861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45097.37690972222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>44489.46454861111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45967.36383101852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45883.44854166666</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44995</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45764.65796296296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44502</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45568.57724537037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45826</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>44917</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45405.56021990741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>45973.56833333334</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45260</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45260</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45972.49131944445</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>44442.57797453704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45425.47435185185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>44592.45429398148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45975</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>45975.63063657407</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45975</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>45975.59288194445</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45695.6371875</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45975</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44552.46501157407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45314.60950231482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44965</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45575</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45978</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>45131</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>44971</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44235</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45980.45003472222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>45980.45099537037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45980.44883101852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>45985.51594907408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>45985.5228125</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>45627.66478009259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>45985.44309027777</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>45406</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45972</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>45985.51518518518</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>45985.52288194445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44518.48670138889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>45471</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>45722.73423611111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44798.62576388889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45302</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>46030.53986111111</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45989.45746527778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44880.64016203704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45989.4640162037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45947.86487268518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45554</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45320.61099537037</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>46030.47952546296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>46030.4771412037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45992.63711805556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>46034.59930555556</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45072</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45072</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45992.92226851852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45993.39221064815</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45619.85208333333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45993.59998842593</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45096.59189814814</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45092</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45698</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>45029</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>45183</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>45541</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>45631</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>45994.60146990741</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>45994.60913194445</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>45994.58454861111</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44277.63396990741</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>45627.63271990741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>45617.39325231482</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>45994.6064699074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>45994.58931712963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>45996.41972222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>45281.63850694444</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>45281.64099537037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44742.60846064815</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45527.56790509259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>45593.50541666667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44284</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45278</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45574.59813657407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45127</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45727</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>45643</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45643</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33740,7 +33740,7 @@
         <v>44575</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>45471</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>46001.68684027778</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33911,7 +33911,7 @@
         <v>45533.49555555556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33968,7 +33968,7 @@
         <v>45232</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>46044.76459490741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>45630</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34139,7 +34139,7 @@
         <v>44861</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>45195.45958333334</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>45315.59041666667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34310,7 +34310,7 @@
         <v>44552.46501157407</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34367,7 +34367,7 @@
         <v>46048.46082175926</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>44421</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45740.64129629629</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>46048.43016203704</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>46048.43489583334</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>46048.41061342593</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>46049.76225694444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45616.64703703704</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>46007.61512731481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45698</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>46048.38107638889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45190.58479166667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>44917</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45183</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45183</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>44502</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>44750.57474537037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35336,7 +35336,7 @@
         <v>46050.65055555556</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>44907.45679398148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>46009.63619212963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>46009.63134259259</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45406</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>46009.62373842593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>46050.53740740741</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>46052.42412037037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>44818</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45070</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>46010.66670138889</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>45154.55184027777</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>45229</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>45229</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>46010</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>44699.37318287037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>45691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45034</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>45769</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>46050</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36481,7 +36481,7 @@
         <v>45702</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>45152</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>45758</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45092.38087962963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36709,7 +36709,7 @@
         <v>46059.55550925926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36766,7 +36766,7 @@
         <v>46017.75243055556</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36823,7 +36823,7 @@
         <v>46058.68678240741</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36880,7 +36880,7 @@
         <v>45478</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>46058.68023148148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37056,7 +37056,7 @@
         <v>46017.71640046296</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45702</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>46058.68371527778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>46058.68884259259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45737.41416666667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         <v>45315.58989583333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37398,7 +37398,7 @@
         <v>45470</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45591</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>44259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>45630</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37626,7 +37626,7 @@
         <v>45411.38738425926</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
         <v>45044</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37745,7 +37745,7 @@
         <v>45574.46119212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37802,7 +37802,7 @@
         <v>44910</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37864,7 +37864,7 @@
         <v>44893.48284722222</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37921,7 +37921,7 @@
         <v>45098</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37978,7 +37978,7 @@
         <v>45027</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         <v>45539</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38092,7 +38092,7 @@
         <v>45075</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38149,7 +38149,7 @@
         <v>45075.65040509259</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38206,7 +38206,7 @@
         <v>44323</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44530</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44691.44309027777</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38377,7 +38377,7 @@
         <v>45541</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38434,7 +38434,7 @@
         <v>45541.50673611111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38491,7 +38491,7 @@
         <v>45761</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38553,7 +38553,7 @@
         <v>45719.37072916667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38610,7 +38610,7 @@
         <v>45541</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>45426.55240740741</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
         <v>45162</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45192</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38838,7 +38838,7 @@
         <v>44433</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38895,7 +38895,7 @@
         <v>45666.68469907407</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38952,7 +38952,7 @@
         <v>45107</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39009,7 +39009,7 @@
         <v>45625</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39066,7 +39066,7 @@
         <v>44964</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
         <v>45467.46278935186</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39180,7 +39180,7 @@
         <v>44256</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39237,7 +39237,7 @@
         <v>44888</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
         <v>44540.53421296296</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39351,7 +39351,7 @@
         <v>45007</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39408,7 +39408,7 @@
         <v>45007</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39465,7 +39465,7 @@
         <v>44575</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39522,7 +39522,7 @@
         <v>45755</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39579,7 +39579,7 @@
         <v>44433</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>45619</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39693,7 +39693,7 @@
         <v>45244.63140046296</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39750,7 +39750,7 @@
         <v>45540</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39807,7 +39807,7 @@
         <v>45034</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39864,7 +39864,7 @@
         <v>45133</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39921,7 +39921,7 @@
         <v>44624</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>44616.56579861111</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>45576</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>44719.56697916667</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44935.82290509259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>45609.58806712963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>45350</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>45485</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40377,7 +40377,7 @@
         <v>45707.41799768519</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40434,7 +40434,7 @@
         <v>45097.76631944445</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>45007</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40548,7 +40548,7 @@
         <v>44788.40986111111</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40605,7 +40605,7 @@
         <v>44855</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40667,7 +40667,7 @@
         <v>45744</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44992.57782407408</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40781,7 +40781,7 @@
         <v>44992</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>44880.59363425926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>45611</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40952,7 +40952,7 @@
         <v>44749.45561342593</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41014,7 +41014,7 @@
         <v>45758</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>45618</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41133,7 +41133,7 @@
         <v>45281</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41190,7 +41190,7 @@
         <v>44624</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41247,7 +41247,7 @@
         <v>45069</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41304,7 +41304,7 @@
         <v>45506</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
         <v>45233</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41418,7 +41418,7 @@
         <v>44917</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41475,7 +41475,7 @@
         <v>44957.72496527778</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41532,7 +41532,7 @@
         <v>45167.62133101852</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         <v>45179</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41646,7 +41646,7 @@
         <v>44893.47173611111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41703,7 +41703,7 @@
         <v>45643</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41760,7 +41760,7 @@
         <v>45737.40944444444</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41817,7 +41817,7 @@
         <v>44750</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41874,7 +41874,7 @@
         <v>44904.48502314815</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41931,7 +41931,7 @@
         <v>45769</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41988,7 +41988,7 @@
         <v>45179</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42045,7 +42045,7 @@
         <v>45769</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42102,7 +42102,7 @@
         <v>45769</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45644</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45647</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42278,7 +42278,7 @@
         <v>45596</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42335,7 +42335,7 @@
         <v>45253</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42392,7 +42392,7 @@
         <v>45405.55740740741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44719.79344907407</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42506,7 +42506,7 @@
         <v>45058</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45728.5137962963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45211</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45365</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42796,7 +42796,7 @@
         <v>44917</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42853,7 +42853,7 @@
         <v>45625</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45333.67833333334</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42967,7 +42967,7 @@
         <v>44818.36606481481</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43024,7 +43024,7 @@
         <v>44973.40076388889</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>44694</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45184</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43200,7 +43200,7 @@
         <v>45763</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43262,7 +43262,7 @@
         <v>45587</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>44531.4047337963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43381,7 +43381,7 @@
         <v>45463.56337962963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>44596.42082175926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45720.36165509259</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45591</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43609,7 +43609,7 @@
         <v>44831</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         <v>44964.62628472222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>45028</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45708</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43837,7 +43837,7 @@
         <v>44285</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>45762</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43951,7 +43951,7 @@
         <v>44893.78893518518</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>44893.79412037037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45591</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45735.39246527778</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45453</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44241,7 +44241,7 @@
         <v>45777</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44298,7 +44298,7 @@
         <v>45783.61837962963</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44355,7 +44355,7 @@
         <v>45783.61372685185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
         <v>45541</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         <v>45281.7602662037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44526,7 +44526,7 @@
         <v>44970</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44583,7 +44583,7 @@
         <v>45569</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44640,7 +44640,7 @@
         <v>45505.5490625</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44697,7 +44697,7 @@
         <v>45789.42752314815</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44754,7 +44754,7 @@
         <v>45786</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44811,7 +44811,7 @@
         <v>45786</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44868,7 +44868,7 @@
         <v>45789.43327546296</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44925,7 +44925,7 @@
         <v>45786</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44982,7 +44982,7 @@
         <v>45734</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45039,7 +45039,7 @@
         <v>45793.55995370371</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45096,7 +45096,7 @@
         <v>45785</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45153,7 +45153,7 @@
         <v>45769.56261574074</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>45793.56989583333</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>45796</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45329,7 +45329,7 @@
         <v>45726</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45386,7 +45386,7 @@
         <v>45085</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
